--- a/csp_documentation/backend/output/extracted_data.xlsx
+++ b/csp_documentation/backend/output/extracted_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\git-repos\ai-engineering-hub\csp_documentation\backend\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFB2824-6134-4EC1-A4A1-6B527E86DA4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A695151D-5685-40A0-B060-F8BFFC1AE797}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:Y22"/>
+      <selection sqref="A1:Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -969,33 +969,6 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
